--- a/station_out_config/Point.xlsx
+++ b/station_out_config/Point.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,16 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>axis</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>

--- a/station_out_config/Point.xlsx
+++ b/station_out_config/Point.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,28 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>axis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_out_config/Point.xlsx
+++ b/station_out_config/Point.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>cs_relative_to</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -470,6 +475,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -481,6 +487,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
